--- a/static/files/foyer_residence_logements.xlsx
+++ b/static/files/foyer_residence_logements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\marjolaine\projets\Beta-Gouv\apilos\static\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3918F09E-423D-194F-9144-3E859A3EDD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179FB7C-3976-4A79-9DEB-6879445BA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="2360" windowWidth="27640" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Logements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>T7</t>
+  </si>
+  <si>
+    <t>T1</t>
   </si>
 </sst>
 </file>
@@ -333,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -359,20 +362,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,8 +462,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A8" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A8" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A9" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A9" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Type de logement" dataDxfId="0"/>
   </tableColumns>
@@ -470,7 +472,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -758,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,37 +770,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
-    <col min="2" max="4" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="29.625" customWidth="1"/>
+    <col min="2" max="4" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="12"/>
@@ -807,7 +811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -816,19 +820,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="12"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="11"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -842,7 +846,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -856,267 +860,267 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="12"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="12"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="12"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="12"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="12"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="12"/>
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="11"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
       <c r="D29" s="16"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12"/>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="12"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="12"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="12"/>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="12"/>
       <c r="D43" s="16"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="12"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
       <c r="D47" s="16"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="12"/>
       <c r="D49" s="16"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="13"/>
       <c r="D52" s="17"/>
     </row>
@@ -1132,9 +1136,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AD40C3CA-AE70-412E-B396-30E460DB0B2E}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92FF0F08-53C6-4886-A5AA-66266516A04A}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$8</xm:f>
+            <xm:f>Data!$A$2:$A$9</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B52</xm:sqref>
         </x14:dataValidation>
@@ -1150,43 +1154,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1201,14 +1205,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1216,52 +1222,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E3" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="+xF94bg3cGLCDozAKAZBrGRZgqAbEFYZmmJPPFh5nOYapOkit5Tz3OhyW2Wji5WfTkMEZtq/qKzyTmy2pQpHxQ==" saltValue="jy6SDkFEwkG9C5JpGCAmvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="pVHGyaqjpluKkGlcdUCwYGM0hS2GZZMKRlgRWh/5Pr1d9nT5aPo2/XkcvL3Hyr7ILNREV5Tvbh3REC+ZgmbKDw==" saltValue="feoIZrIll29OnV/4xJ8T4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/static/files/foyer_residence_logements.xlsx
+++ b/static/files/foyer_residence_logements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\marjolaine\projets\Beta-Gouv\apilos\static\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1179FB7C-3976-4A79-9DEB-6879445BA729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0F1DF-17BE-4A40-8C8D-D1106EC1C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="1400" yWindow="500" windowWidth="27400" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Logements" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Ici quelques explications</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>T1</t>
+  </si>
+  <si>
+    <t>T1 bis</t>
   </si>
 </sst>
 </file>
@@ -462,8 +465,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A9" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
-  <autoFilter ref="A1:A9" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}" name="type" displayName="type" ref="A1:A10" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="3" tableBorderDxfId="2" totalsRowBorderDxfId="1">
+  <autoFilter ref="A1:A10" xr:uid="{60458129-C213-8741-80B4-B15A740996D3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{68B921AF-0801-1140-A800-5EFE7005DB88}" name="Type de logement" dataDxfId="0"/>
   </tableColumns>
@@ -472,7 +475,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -771,16 +774,16 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.625" customWidth="1"/>
-    <col min="2" max="4" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="2" max="4" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>16</v>
       </c>
@@ -794,7 +797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>17</v>
       </c>
@@ -802,7 +805,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="23"/>
     </row>
-    <row r="3" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="12"/>
@@ -811,7 +814,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="11"/>
@@ -820,19 +823,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="12"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="11"/>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="12"/>
@@ -846,7 +849,7 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="11"/>
@@ -860,265 +863,265 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="12"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="11"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="12"/>
       <c r="D11" s="16"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="11"/>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="12"/>
       <c r="D13" s="16"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="11"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="12"/>
       <c r="D15" s="16"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="11"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="12"/>
       <c r="D17" s="16"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="11"/>
       <c r="D18" s="15"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="12"/>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="12"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="11"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="12"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="11"/>
       <c r="D24" s="15"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="12"/>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="11"/>
       <c r="D26" s="15"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="12"/>
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="11"/>
       <c r="D28" s="15"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="12"/>
       <c r="D29" s="16"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="11"/>
       <c r="D30" s="15"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="12"/>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="11"/>
       <c r="D32" s="15"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="12"/>
       <c r="D33" s="16"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="11"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="12"/>
       <c r="D35" s="16"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="11"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="12"/>
       <c r="D37" s="16"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="11"/>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="12"/>
       <c r="D39" s="16"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="11"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="12"/>
       <c r="D41" s="16"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="11"/>
       <c r="D42" s="15"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="12"/>
       <c r="D43" s="16"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="11"/>
       <c r="D44" s="15"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="12"/>
       <c r="D45" s="16"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="11"/>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="12"/>
       <c r="D47" s="16"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="11"/>
       <c r="D48" s="15"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="12"/>
       <c r="D49" s="16"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="11"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="12"/>
       <c r="D51" s="16"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="5"/>
       <c r="B52" s="9"/>
       <c r="C52" s="13"/>
@@ -1138,7 +1141,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{92FF0F08-53C6-4886-A5AA-66266516A04A}">
           <x14:formula1>
-            <xm:f>Data!$A$2:$A$9</xm:f>
+            <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B52</xm:sqref>
         </x14:dataValidation>
@@ -1154,43 +1157,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>4</v>
       </c>
@@ -1203,18 +1206,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4880C39C-0BD9-B447-909B-7F37D33CA805}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -1222,55 +1223,61 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="19"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E4" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="pVHGyaqjpluKkGlcdUCwYGM0hS2GZZMKRlgRWh/5Pr1d9nT5aPo2/XkcvL3Hyr7ILNREV5Tvbh3REC+ZgmbKDw==" saltValue="feoIZrIll29OnV/4xJ8T4Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="TyYFcPJH22iylfRKqcF4MUGl0BH/NQFdTkMG2R4weJjPZYlwxS9M0MULSbE0ioE+p9H7HcoHbSiVUzdOjorq4g==" saltValue="AfIcMrTXLf7yhfeYrWaK4g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/static/files/foyer_residence_logements.xlsx
+++ b/static/files/foyer_residence_logements.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasoudard/workspace/beta.gouv.fr/apilos/static/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE0F1DF-17BE-4A40-8C8D-D1106EC1C459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD775BD-7784-D74C-BFAA-AB9A8474BCD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="500" windowWidth="27400" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
+    <workbookView xWindow="36340" yWindow="2120" windowWidth="27400" windowHeight="16440" xr2:uid="{5E94D4F8-9F67-BB48-B84E-2D90FAF38DE8}"/>
   </bookViews>
   <sheets>
     <sheet name="Logements" sheetId="1" r:id="rId1"/>
     <sheet name="Notice" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -475,9 +475,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -515,7 +515,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -621,7 +621,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,7 +763,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -771,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08021C90-1ACF-2A4C-A1B0-58A48A8F7007}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -806,40 +806,40 @@
       <c r="D2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="15"/>
+    <row r="4" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="16"/>
       <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="16"/>
+    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -849,11 +849,11 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="15"/>
+    <row r="8" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -863,269 +863,263 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="16"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="15"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="16"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="15"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="15"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="15"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="15"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="15"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="16"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="15"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="15"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="16"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="15"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="16"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="15"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="16"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="15"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="15"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="16"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="17"/>
+    <row r="9" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="15"/>
+    </row>
+    <row r="16" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="15"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="15"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="16"/>
+    </row>
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="15"/>
+    </row>
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="15"/>
+    </row>
+    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="16"/>
+    </row>
+    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="15"/>
+    </row>
+    <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="16"/>
+    </row>
+    <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="15"/>
+    </row>
+    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="16"/>
+    </row>
+    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="15"/>
+    </row>
+    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="16"/>
+    </row>
+    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="16"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="15"/>
+    </row>
+    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="16"/>
+    </row>
+    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1143,7 +1137,7 @@
           <x14:formula1>
             <xm:f>Data!$A$2:$A$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B52</xm:sqref>
+          <xm:sqref>B3:B51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
